--- a/notebooks/ecommerce_behaviour/dataset/df_ecom_values_encoded.xlsx
+++ b/notebooks/ecommerce_behaviour/dataset/df_ecom_values_encoded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lourefra/Documents/Mercedes-benz.io/TRAINING/post graduation course IST - Data science/projeto curso/ist_dash_2024_rec/notebooks/ecommerce_behaviour/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF07B7D-0BB8-144E-BB92-AEE9845746D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935888C5-E4EC-9B4E-97B2-5B0CB3FD0127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="category_code_lvl_1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">day!$A$1:$B$31</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="2213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="2218">
   <si>
     <t>category_code_lvl_1</t>
   </si>
@@ -6670,13 +6683,28 @@
   </si>
   <si>
     <t>appliances/kitchen/toaster</t>
+  </si>
+  <si>
+    <t>appliances/kitchen/microwave</t>
+  </si>
+  <si>
+    <t>appliances/kitchen/steam_cooker</t>
+  </si>
+  <si>
+    <t>appliances/kitchen/toster</t>
+  </si>
+  <si>
+    <t>computers/components/hdd</t>
+  </si>
+  <si>
+    <t>country_yard/watering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6688,6 +6716,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -6726,7 +6760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6735,6 +6769,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7039,8 +7074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7170,8 +7205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7179,7 +7214,7 @@
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -7693,1081 +7728,3395 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B103" sqref="A103:B103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(A2,D$2:D$136, 1,FALSE))), "Existe", "Não existe")</f>
+        <v>Existe</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(D2,A$2:A$133, 1,FALSE))), "Existe", "Não existe")</f>
+        <v>Existe</v>
+      </c>
+      <c r="H2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>146</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="4" t="str">
+        <f t="shared" ref="C3:C66" si="0">IF(NOT(ISNA(VLOOKUP(A3,D$2:D$136, 1,FALSE))), "Existe", "Não existe")</f>
+        <v>Existe</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E66" si="1">IF(NOT(ISNA(VLOOKUP(D3,A$2:A$133, 1,FALSE))), "Existe", "Não existe")</f>
+        <v>Existe</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>148</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>150</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>153</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>154</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>120</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>121</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>122</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>123</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>124</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2216</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>125</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>126</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25">
+        <v>23</v>
+      </c>
+      <c r="K25" s="4" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(#REF!,H$2:H$136, 1,FALSE))), "Existe", "Não existe")</f>
+        <v>Existe</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>128</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>129</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>131</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>127</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>88</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>89</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>90</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>92</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>93</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Não existe</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>94</v>
       </c>
       <c r="B39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
       <c r="B40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H40" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H42" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42">
+        <v>40</v>
+      </c>
+      <c r="K42" s="4" t="str">
+        <f>IF(NOT(ISNA(VLOOKUP(#REF!,A$2:A$133, 1,FALSE))), "Existe", "Não existe")</f>
+        <v>Existe</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>98</v>
       </c>
       <c r="B43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H43" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>99</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H44" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>100</v>
       </c>
       <c r="B45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Não existe</v>
+      </c>
+      <c r="H45" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>43</v>
+      </c>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>101</v>
       </c>
       <c r="B46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H46" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46">
+        <v>44</v>
+      </c>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>102</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H47" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
       <c r="B48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>104</v>
       </c>
       <c r="B49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Não existe</v>
+      </c>
+      <c r="H49" t="s">
+        <v>104</v>
+      </c>
+      <c r="I49">
+        <v>47</v>
+      </c>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>105</v>
       </c>
       <c r="B50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="H50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>106</v>
       </c>
       <c r="B51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H51" t="s">
+        <v>2214</v>
+      </c>
+      <c r="I51">
+        <v>49</v>
+      </c>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2212</v>
       </c>
       <c r="B52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Não existe</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H52" t="s">
+        <v>2213</v>
+      </c>
+      <c r="I52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>107</v>
       </c>
       <c r="B53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H53" t="s">
+        <v>2215</v>
+      </c>
+      <c r="I53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>108</v>
       </c>
       <c r="B54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D54" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H54" t="s">
+        <v>106</v>
+      </c>
+      <c r="I54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>109</v>
       </c>
       <c r="B55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H55" t="s">
+        <v>107</v>
+      </c>
+      <c r="I55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>110</v>
       </c>
       <c r="B56">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H56" t="s">
+        <v>108</v>
+      </c>
+      <c r="I56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>41</v>
       </c>
       <c r="B57">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H57" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>155</v>
       </c>
       <c r="B58">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D58" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H58" t="s">
+        <v>110</v>
+      </c>
+      <c r="I58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>156</v>
       </c>
       <c r="B59">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>157</v>
       </c>
       <c r="B60">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D60" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H60" t="s">
+        <v>155</v>
+      </c>
+      <c r="I60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>158</v>
       </c>
       <c r="B61">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H61" t="s">
+        <v>156</v>
+      </c>
+      <c r="I61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>159</v>
       </c>
       <c r="B62">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D62" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H62" t="s">
+        <v>157</v>
+      </c>
+      <c r="I62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>162</v>
       </c>
       <c r="B63">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H63" t="s">
+        <v>158</v>
+      </c>
+      <c r="I63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>163</v>
       </c>
       <c r="B64">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H64" t="s">
+        <v>159</v>
+      </c>
+      <c r="I64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>164</v>
       </c>
       <c r="B65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D65" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H65" t="s">
+        <v>162</v>
+      </c>
+      <c r="I65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>165</v>
       </c>
       <c r="B66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Existe</v>
+      </c>
+      <c r="D66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Existe</v>
+      </c>
+      <c r="H66" t="s">
+        <v>163</v>
+      </c>
+      <c r="I66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>160</v>
       </c>
       <c r="B67">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" s="4" t="str">
+        <f t="shared" ref="C67:C130" si="2">IF(NOT(ISNA(VLOOKUP(A67,D$2:D$136, 1,FALSE))), "Existe", "Não existe")</f>
+        <v>Existe</v>
+      </c>
+      <c r="D67" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f t="shared" ref="E67:E130" si="3">IF(NOT(ISNA(VLOOKUP(D67,A$2:A$133, 1,FALSE))), "Existe", "Não existe")</f>
+        <v>Existe</v>
+      </c>
+      <c r="H67" t="s">
+        <v>164</v>
+      </c>
+      <c r="I67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>161</v>
       </c>
       <c r="B68">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2216</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Não existe</v>
+      </c>
+      <c r="H68" t="s">
+        <v>165</v>
+      </c>
+      <c r="I68">
+        <v>66</v>
+      </c>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>166</v>
       </c>
       <c r="B69">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H69" t="s">
+        <v>160</v>
+      </c>
+      <c r="I69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
       <c r="B70">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H70" t="s">
+        <v>161</v>
+      </c>
+      <c r="I70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>52</v>
       </c>
       <c r="B71">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D71" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H71" t="s">
+        <v>166</v>
+      </c>
+      <c r="I71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>143</v>
       </c>
       <c r="B72">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H72" t="s">
+        <v>50</v>
+      </c>
+      <c r="I72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>144</v>
       </c>
       <c r="B73">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H73" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>34</v>
       </c>
       <c r="B74">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D74" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H74" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>28</v>
       </c>
       <c r="B75">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H75" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>25</v>
       </c>
       <c r="B76">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D76" t="s">
+        <v>127</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H76" t="s">
+        <v>144</v>
+      </c>
+      <c r="I76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>23</v>
       </c>
       <c r="B77">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D77" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H77" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
       <c r="B78">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>22</v>
       </c>
       <c r="B79">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D79" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>24</v>
       </c>
       <c r="B80">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D80" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H80" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
       <c r="B81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D81" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H81" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>30</v>
       </c>
       <c r="B82">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D82" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>31</v>
       </c>
       <c r="B83">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D83" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>35</v>
       </c>
       <c r="B84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H84" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>32</v>
       </c>
       <c r="B85">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D85" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H85" t="s">
+        <v>30</v>
+      </c>
+      <c r="I85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
       <c r="B86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H86" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>21</v>
       </c>
       <c r="B87">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E87" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H87" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>26</v>
       </c>
       <c r="B88">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D88" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H88" t="s">
+        <v>32</v>
+      </c>
+      <c r="I88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>29</v>
       </c>
       <c r="B89">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D89" t="s">
+        <v>140</v>
+      </c>
+      <c r="E89" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H89" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>81</v>
       </c>
       <c r="B90">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D90" t="s">
+        <v>141</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H90" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>82</v>
       </c>
       <c r="B91">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D91" t="s">
+        <v>142</v>
+      </c>
+      <c r="E91" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H91" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>83</v>
       </c>
       <c r="B92">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D92" t="s">
+        <v>50</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>84</v>
       </c>
       <c r="B93">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D93" t="s">
+        <v>143</v>
+      </c>
+      <c r="E93" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H93" t="s">
+        <v>81</v>
+      </c>
+      <c r="I93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>85</v>
       </c>
       <c r="B94">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D94" t="s">
+        <v>144</v>
+      </c>
+      <c r="E94" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H94" t="s">
+        <v>82</v>
+      </c>
+      <c r="I94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>86</v>
       </c>
       <c r="B95">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D95" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H95" t="s">
+        <v>83</v>
+      </c>
+      <c r="I95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
       <c r="B96">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E96" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Não existe</v>
+      </c>
+      <c r="H96" t="s">
+        <v>84</v>
+      </c>
+      <c r="I96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>65</v>
       </c>
       <c r="B97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D97" t="s">
+        <v>145</v>
+      </c>
+      <c r="E97" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H97" t="s">
+        <v>85</v>
+      </c>
+      <c r="I97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>69</v>
       </c>
       <c r="B98">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D98" t="s">
+        <v>146</v>
+      </c>
+      <c r="E98" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H98" t="s">
+        <v>86</v>
+      </c>
+      <c r="I98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>68</v>
       </c>
       <c r="B99">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D99" t="s">
+        <v>147</v>
+      </c>
+      <c r="E99" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H99" t="s">
+        <v>87</v>
+      </c>
+      <c r="I99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>66</v>
       </c>
       <c r="B100">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D100" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H100" t="s">
+        <v>65</v>
+      </c>
+      <c r="I100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>70</v>
       </c>
       <c r="B101">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D101" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H101" t="s">
+        <v>69</v>
+      </c>
+      <c r="I101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>167</v>
       </c>
       <c r="B102">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D102" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H102" t="s">
+        <v>68</v>
+      </c>
+      <c r="I102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>72</v>
       </c>
       <c r="B103">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D103" t="s">
+        <v>151</v>
+      </c>
+      <c r="E103" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H103" t="s">
+        <v>66</v>
+      </c>
+      <c r="I103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>76</v>
       </c>
       <c r="B104">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D104" t="s">
+        <v>152</v>
+      </c>
+      <c r="E104" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H104" t="s">
+        <v>70</v>
+      </c>
+      <c r="I104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>74</v>
       </c>
       <c r="B105">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H105" t="s">
+        <v>167</v>
+      </c>
+      <c r="I105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>75</v>
       </c>
       <c r="B106">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D106" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H106" t="s">
+        <v>72</v>
+      </c>
+      <c r="I106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>73</v>
       </c>
       <c r="B107">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D107" t="s">
+        <v>57</v>
+      </c>
+      <c r="E107" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H107" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>77</v>
       </c>
       <c r="B108">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D108" t="s">
+        <v>58</v>
+      </c>
+      <c r="E108" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H108" t="s">
+        <v>74</v>
+      </c>
+      <c r="I108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D109" t="s">
+        <v>153</v>
+      </c>
+      <c r="E109" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H109" t="s">
+        <v>75</v>
+      </c>
+      <c r="I109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D110" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H110" t="s">
+        <v>73</v>
+      </c>
+      <c r="I110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D111" t="s">
+        <v>155</v>
+      </c>
+      <c r="E111" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H111" t="s">
+        <v>77</v>
+      </c>
+      <c r="I111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D112" t="s">
+        <v>156</v>
+      </c>
+      <c r="E112" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H112" t="s">
+        <v>111</v>
+      </c>
+      <c r="I112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D113" t="s">
+        <v>157</v>
+      </c>
+      <c r="E113" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H113" t="s">
+        <v>112</v>
+      </c>
+      <c r="I113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D114" t="s">
+        <v>158</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H114" t="s">
+        <v>113</v>
+      </c>
+      <c r="I114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D115" t="s">
+        <v>159</v>
+      </c>
+      <c r="E115" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H115" t="s">
+        <v>114</v>
+      </c>
+      <c r="I115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D116" t="s">
+        <v>160</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H116" t="s">
+        <v>115</v>
+      </c>
+      <c r="I116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D117" t="s">
+        <v>161</v>
+      </c>
+      <c r="E117" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H117" t="s">
+        <v>116</v>
+      </c>
+      <c r="I117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>168</v>
       </c>
       <c r="B118">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D118" t="s">
+        <v>162</v>
+      </c>
+      <c r="E118" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H118" t="s">
+        <v>117</v>
+      </c>
+      <c r="I118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>78</v>
       </c>
       <c r="B119">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D119" t="s">
+        <v>163</v>
+      </c>
+      <c r="E119" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H119" t="s">
+        <v>118</v>
+      </c>
+      <c r="I119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>132</v>
       </c>
       <c r="B120">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D120" t="s">
+        <v>164</v>
+      </c>
+      <c r="E120" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H120" t="s">
+        <v>119</v>
+      </c>
+      <c r="I120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>133</v>
       </c>
       <c r="B121">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D121" t="s">
+        <v>165</v>
+      </c>
+      <c r="E121" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H121" t="s">
+        <v>168</v>
+      </c>
+      <c r="I121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>134</v>
       </c>
       <c r="B122">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D122" t="s">
+        <v>166</v>
+      </c>
+      <c r="E122" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H122" t="s">
+        <v>78</v>
+      </c>
+      <c r="I122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>135</v>
       </c>
       <c r="B123">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D123" t="s">
+        <v>65</v>
+      </c>
+      <c r="E123" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H123" t="s">
+        <v>132</v>
+      </c>
+      <c r="I123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>136</v>
       </c>
       <c r="B124">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D124" t="s">
+        <v>66</v>
+      </c>
+      <c r="E124" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H124" t="s">
+        <v>133</v>
+      </c>
+      <c r="I124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>137</v>
       </c>
       <c r="B125">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D125" t="s">
+        <v>167</v>
+      </c>
+      <c r="E125" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H125" t="s">
+        <v>134</v>
+      </c>
+      <c r="I125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>138</v>
       </c>
       <c r="B126">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D126" t="s">
+        <v>68</v>
+      </c>
+      <c r="E126" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H126" t="s">
+        <v>135</v>
+      </c>
+      <c r="I126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>139</v>
       </c>
       <c r="B127">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H127" t="s">
+        <v>136</v>
+      </c>
+      <c r="I127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>140</v>
       </c>
       <c r="B128">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D128" t="s">
+        <v>70</v>
+      </c>
+      <c r="E128" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H128" t="s">
+        <v>137</v>
+      </c>
+      <c r="I128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>141</v>
       </c>
       <c r="B129">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D129" t="s">
+        <v>168</v>
+      </c>
+      <c r="E129" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H129" t="s">
+        <v>138</v>
+      </c>
+      <c r="I129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>142</v>
       </c>
       <c r="B130">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Existe</v>
+      </c>
+      <c r="D130" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Existe</v>
+      </c>
+      <c r="H130" t="s">
+        <v>139</v>
+      </c>
+      <c r="I130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>17</v>
       </c>
       <c r="B131">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131" s="4" t="str">
+        <f t="shared" ref="C131:C133" si="4">IF(NOT(ISNA(VLOOKUP(A131,D$2:D$136, 1,FALSE))), "Existe", "Não existe")</f>
+        <v>Existe</v>
+      </c>
+      <c r="D131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E131" s="4" t="str">
+        <f t="shared" ref="E131:E136" si="5">IF(NOT(ISNA(VLOOKUP(D131,A$2:A$133, 1,FALSE))), "Existe", "Não existe")</f>
+        <v>Existe</v>
+      </c>
+      <c r="H131" t="s">
+        <v>140</v>
+      </c>
+      <c r="I131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>19</v>
       </c>
       <c r="B132">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Existe</v>
+      </c>
+      <c r="D132" t="s">
+        <v>74</v>
+      </c>
+      <c r="E132" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Existe</v>
+      </c>
+      <c r="H132" t="s">
+        <v>141</v>
+      </c>
+      <c r="I132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>18</v>
       </c>
       <c r="B133">
         <v>131</v>
+      </c>
+      <c r="C133" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>Existe</v>
+      </c>
+      <c r="D133" t="s">
+        <v>75</v>
+      </c>
+      <c r="E133" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Existe</v>
+      </c>
+      <c r="H133" t="s">
+        <v>142</v>
+      </c>
+      <c r="I133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="C134" s="4"/>
+      <c r="D134" t="s">
+        <v>76</v>
+      </c>
+      <c r="E134" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Existe</v>
+      </c>
+      <c r="H134" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="C135" s="4"/>
+      <c r="D135" t="s">
+        <v>77</v>
+      </c>
+      <c r="E135" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Existe</v>
+      </c>
+      <c r="H135" t="s">
+        <v>19</v>
+      </c>
+      <c r="I135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="C136" s="4"/>
+      <c r="D136" t="s">
+        <v>78</v>
+      </c>
+      <c r="E136" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>Existe</v>
+      </c>
+      <c r="H136" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -8780,7 +11129,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18958,7 +21307,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19001,7 +21350,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19023,7 +21372,7 @@
         <v>2202</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -19067,8 +21416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19340,7 +21689,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/notebooks/ecommerce_behaviour/dataset/df_ecom_values_encoded.xlsx
+++ b/notebooks/ecommerce_behaviour/dataset/df_ecom_values_encoded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lourefra/Documents/Mercedes-benz.io/TRAINING/post graduation course IST - Data science/projeto curso/ist_dash_2024_rec/notebooks/ecommerce_behaviour/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935888C5-E4EC-9B4E-97B2-5B0CB3FD0127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A6BABB-D7FA-D34F-B1CE-864357120585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="30240" windowHeight="17640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="category_code_lvl_1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="2218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="2213">
   <si>
     <t>category_code_lvl_1</t>
   </si>
@@ -6683,28 +6683,13 @@
   </si>
   <si>
     <t>appliances/kitchen/toaster</t>
-  </si>
-  <si>
-    <t>appliances/kitchen/microwave</t>
-  </si>
-  <si>
-    <t>appliances/kitchen/steam_cooker</t>
-  </si>
-  <si>
-    <t>appliances/kitchen/toster</t>
-  </si>
-  <si>
-    <t>computers/components/hdd</t>
-  </si>
-  <si>
-    <t>country_yard/watering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6716,12 +6701,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -6760,7 +6739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6769,7 +6748,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7075,13 +7053,13 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -7142,7 +7120,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -7150,7 +7128,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -7158,7 +7136,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -7166,7 +7144,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -7174,7 +7152,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -7182,7 +7160,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -7190,7 +7168,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -7205,8 +7183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7563,7 +7541,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>42</v>
@@ -7571,7 +7549,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -7579,7 +7557,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -7587,7 +7565,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47">
         <v>45</v>
@@ -7595,7 +7573,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -7603,7 +7581,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <v>47</v>
@@ -7611,7 +7589,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B50">
         <v>48</v>
@@ -7619,7 +7597,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -7627,7 +7605,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -7635,7 +7613,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B53">
         <v>51</v>
@@ -7643,7 +7621,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>52</v>
@@ -7651,7 +7629,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B55">
         <v>53</v>
@@ -7659,7 +7637,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B56">
         <v>54</v>
@@ -7667,7 +7645,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -7675,7 +7653,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -7683,7 +7661,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -7691,7 +7669,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -7699,7 +7677,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -7707,7 +7685,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B62">
         <v>60</v>
@@ -7715,7 +7693,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -7728,3395 +7706,1080 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>145</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="str">
-        <f>IF(NOT(ISNA(VLOOKUP(A2,D$2:D$136, 1,FALSE))), "Existe", "Não existe")</f>
-        <v>Existe</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="str">
-        <f>IF(NOT(ISNA(VLOOKUP(D2,A$2:A$133, 1,FALSE))), "Existe", "Não existe")</f>
-        <v>Existe</v>
-      </c>
-      <c r="H2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>146</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="str">
-        <f t="shared" ref="C3:C66" si="0">IF(NOT(ISNA(VLOOKUP(A3,D$2:D$136, 1,FALSE))), "Existe", "Não existe")</f>
-        <v>Existe</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="str">
-        <f t="shared" ref="E3:E66" si="1">IF(NOT(ISNA(VLOOKUP(D3,A$2:A$133, 1,FALSE))), "Existe", "Não existe")</f>
-        <v>Existe</v>
-      </c>
-      <c r="H3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>147</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>148</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>149</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>150</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>151</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>152</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>153</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>154</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H11" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>57</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>58</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>120</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>121</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H17" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>122</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H18" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>123</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>124</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2216</v>
-      </c>
-      <c r="I20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>125</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H21" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>126</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H23" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25">
-        <v>23</v>
-      </c>
-      <c r="K25" s="4" t="str">
-        <f>IF(NOT(ISNA(VLOOKUP(#REF!,H$2:H$136, 1,FALSE))), "Existe", "Não existe")</f>
-        <v>Existe</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>128</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>129</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H27" t="s">
-        <v>128</v>
-      </c>
-      <c r="I27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>130</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H28" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>131</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>127</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H30" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>88</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H31" t="s">
-        <v>127</v>
-      </c>
-      <c r="I31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>89</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H32" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>90</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
-      <c r="C33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H33" t="s">
-        <v>89</v>
-      </c>
-      <c r="I33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>91</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
-      <c r="C34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>92</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
-      <c r="C35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H35" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
-      <c r="C36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
         <v>35</v>
       </c>
-      <c r="C37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Não existe</v>
-      </c>
-      <c r="D37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
-      <c r="C38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>94</v>
       </c>
       <c r="B39">
         <v>37</v>
       </c>
-      <c r="C39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H39" t="s">
-        <v>94</v>
-      </c>
-      <c r="I39">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>95</v>
       </c>
       <c r="B40">
         <v>38</v>
       </c>
-      <c r="C40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H40" t="s">
-        <v>95</v>
-      </c>
-      <c r="I40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>96</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
-      <c r="C41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H41" t="s">
-        <v>96</v>
-      </c>
-      <c r="I41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>97</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
-      <c r="C42" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H42" t="s">
-        <v>97</v>
-      </c>
-      <c r="I42">
-        <v>40</v>
-      </c>
-      <c r="K42" s="4" t="str">
-        <f>IF(NOT(ISNA(VLOOKUP(#REF!,A$2:A$133, 1,FALSE))), "Existe", "Não existe")</f>
-        <v>Existe</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>98</v>
       </c>
       <c r="B43">
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H43" t="s">
-        <v>98</v>
-      </c>
-      <c r="I43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>99</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
-      <c r="C44" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D44" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H44" t="s">
-        <v>99</v>
-      </c>
-      <c r="I44">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>100</v>
       </c>
       <c r="B45">
         <v>43</v>
       </c>
-      <c r="C45" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2213</v>
-      </c>
-      <c r="E45" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Não existe</v>
-      </c>
-      <c r="H45" t="s">
-        <v>100</v>
-      </c>
-      <c r="I45">
-        <v>43</v>
-      </c>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>101</v>
       </c>
       <c r="B46">
         <v>44</v>
       </c>
-      <c r="C46" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H46" t="s">
-        <v>101</v>
-      </c>
-      <c r="I46">
-        <v>44</v>
-      </c>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>102</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
-      <c r="C47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H47" t="s">
-        <v>102</v>
-      </c>
-      <c r="I47">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>103</v>
       </c>
       <c r="B48">
         <v>46</v>
       </c>
-      <c r="C48" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H48" t="s">
-        <v>103</v>
-      </c>
-      <c r="I48">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>104</v>
       </c>
       <c r="B49">
         <v>47</v>
       </c>
-      <c r="C49" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D49" t="s">
-        <v>2214</v>
-      </c>
-      <c r="E49" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Não existe</v>
-      </c>
-      <c r="H49" t="s">
-        <v>104</v>
-      </c>
-      <c r="I49">
-        <v>47</v>
-      </c>
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>105</v>
       </c>
       <c r="B50">
         <v>48</v>
       </c>
-      <c r="C50" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="H50" t="s">
-        <v>105</v>
-      </c>
-      <c r="I50">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>106</v>
       </c>
       <c r="B51">
         <v>49</v>
       </c>
-      <c r="C51" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H51" t="s">
-        <v>2214</v>
-      </c>
-      <c r="I51">
-        <v>49</v>
-      </c>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2212</v>
       </c>
       <c r="B52">
         <v>50</v>
       </c>
-      <c r="C52" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Não existe</v>
-      </c>
-      <c r="D52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H52" t="s">
-        <v>2213</v>
-      </c>
-      <c r="I52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>107</v>
       </c>
       <c r="B53">
         <v>51</v>
       </c>
-      <c r="C53" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H53" t="s">
-        <v>2215</v>
-      </c>
-      <c r="I53">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>108</v>
       </c>
       <c r="B54">
         <v>52</v>
       </c>
-      <c r="C54" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D54" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H54" t="s">
-        <v>106</v>
-      </c>
-      <c r="I54">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>109</v>
       </c>
       <c r="B55">
         <v>53</v>
       </c>
-      <c r="C55" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H55" t="s">
-        <v>107</v>
-      </c>
-      <c r="I55">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>110</v>
       </c>
       <c r="B56">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D56" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H56" t="s">
-        <v>108</v>
-      </c>
-      <c r="I56">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>41</v>
       </c>
       <c r="B57">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D57" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H57" t="s">
-        <v>109</v>
-      </c>
-      <c r="I57">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>155</v>
       </c>
       <c r="B58">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D58" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H58" t="s">
-        <v>110</v>
-      </c>
-      <c r="I58">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>156</v>
       </c>
       <c r="B59">
         <v>57</v>
       </c>
-      <c r="C59" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H59" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>157</v>
       </c>
       <c r="B60">
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D60" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H60" t="s">
-        <v>155</v>
-      </c>
-      <c r="I60">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>158</v>
       </c>
       <c r="B61">
         <v>59</v>
       </c>
-      <c r="C61" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D61" t="s">
-        <v>116</v>
-      </c>
-      <c r="E61" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H61" t="s">
-        <v>156</v>
-      </c>
-      <c r="I61">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>159</v>
       </c>
       <c r="B62">
         <v>60</v>
       </c>
-      <c r="C62" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D62" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H62" t="s">
-        <v>157</v>
-      </c>
-      <c r="I62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>162</v>
       </c>
       <c r="B63">
         <v>61</v>
       </c>
-      <c r="C63" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D63" t="s">
-        <v>118</v>
-      </c>
-      <c r="E63" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H63" t="s">
-        <v>158</v>
-      </c>
-      <c r="I63">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>163</v>
       </c>
       <c r="B64">
         <v>62</v>
       </c>
-      <c r="C64" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E64" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H64" t="s">
-        <v>159</v>
-      </c>
-      <c r="I64">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>164</v>
       </c>
       <c r="B65">
         <v>63</v>
       </c>
-      <c r="C65" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D65" t="s">
-        <v>120</v>
-      </c>
-      <c r="E65" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H65" t="s">
-        <v>162</v>
-      </c>
-      <c r="I65">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>165</v>
       </c>
       <c r="B66">
         <v>64</v>
       </c>
-      <c r="C66" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Existe</v>
-      </c>
-      <c r="D66" t="s">
-        <v>121</v>
-      </c>
-      <c r="E66" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Existe</v>
-      </c>
-      <c r="H66" t="s">
-        <v>163</v>
-      </c>
-      <c r="I66">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>160</v>
       </c>
       <c r="B67">
         <v>65</v>
       </c>
-      <c r="C67" s="4" t="str">
-        <f t="shared" ref="C67:C130" si="2">IF(NOT(ISNA(VLOOKUP(A67,D$2:D$136, 1,FALSE))), "Existe", "Não existe")</f>
-        <v>Existe</v>
-      </c>
-      <c r="D67" t="s">
-        <v>122</v>
-      </c>
-      <c r="E67" s="4" t="str">
-        <f t="shared" ref="E67:E130" si="3">IF(NOT(ISNA(VLOOKUP(D67,A$2:A$133, 1,FALSE))), "Existe", "Não existe")</f>
-        <v>Existe</v>
-      </c>
-      <c r="H67" t="s">
-        <v>164</v>
-      </c>
-      <c r="I67">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>161</v>
       </c>
       <c r="B68">
         <v>66</v>
       </c>
-      <c r="C68" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2216</v>
-      </c>
-      <c r="E68" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Não existe</v>
-      </c>
-      <c r="H68" t="s">
-        <v>165</v>
-      </c>
-      <c r="I68">
-        <v>66</v>
-      </c>
-      <c r="K68" s="4"/>
-    </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>166</v>
       </c>
       <c r="B69">
         <v>67</v>
       </c>
-      <c r="C69" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D69" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H69" t="s">
-        <v>160</v>
-      </c>
-      <c r="I69">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>50</v>
       </c>
       <c r="B70">
         <v>68</v>
       </c>
-      <c r="C70" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D70" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H70" t="s">
-        <v>161</v>
-      </c>
-      <c r="I70">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>52</v>
       </c>
       <c r="B71">
         <v>69</v>
       </c>
-      <c r="C71" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H71" t="s">
-        <v>166</v>
-      </c>
-      <c r="I71">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>143</v>
       </c>
       <c r="B72">
         <v>70</v>
       </c>
-      <c r="C72" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E72" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H72" t="s">
-        <v>50</v>
-      </c>
-      <c r="I72">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>144</v>
       </c>
       <c r="B73">
         <v>71</v>
       </c>
-      <c r="C73" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D73" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H73" t="s">
-        <v>52</v>
-      </c>
-      <c r="I73">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>34</v>
       </c>
       <c r="B74">
         <v>72</v>
       </c>
-      <c r="C74" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D74" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H74" t="s">
-        <v>2217</v>
-      </c>
-      <c r="I74">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>28</v>
       </c>
       <c r="B75">
         <v>73</v>
       </c>
-      <c r="C75" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D75" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H75" t="s">
-        <v>143</v>
-      </c>
-      <c r="I75">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>25</v>
       </c>
       <c r="B76">
         <v>74</v>
       </c>
-      <c r="C76" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D76" t="s">
-        <v>127</v>
-      </c>
-      <c r="E76" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H76" t="s">
-        <v>144</v>
-      </c>
-      <c r="I76">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>23</v>
       </c>
       <c r="B77">
         <v>75</v>
       </c>
-      <c r="C77" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D77" t="s">
-        <v>128</v>
-      </c>
-      <c r="E77" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H77" t="s">
-        <v>34</v>
-      </c>
-      <c r="I77">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>27</v>
       </c>
       <c r="B78">
         <v>76</v>
       </c>
-      <c r="C78" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D78" t="s">
-        <v>129</v>
-      </c>
-      <c r="E78" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H78" t="s">
-        <v>28</v>
-      </c>
-      <c r="I78">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>22</v>
       </c>
       <c r="B79">
         <v>77</v>
       </c>
-      <c r="C79" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D79" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I79">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>24</v>
       </c>
       <c r="B80">
         <v>78</v>
       </c>
-      <c r="C80" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D80" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H80" t="s">
-        <v>23</v>
-      </c>
-      <c r="I80">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>33</v>
       </c>
       <c r="B81">
         <v>79</v>
       </c>
-      <c r="C81" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D81" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H81" t="s">
-        <v>27</v>
-      </c>
-      <c r="I81">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>30</v>
       </c>
       <c r="B82">
         <v>80</v>
       </c>
-      <c r="C82" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D82" t="s">
-        <v>133</v>
-      </c>
-      <c r="E82" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H82" t="s">
-        <v>22</v>
-      </c>
-      <c r="I82">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>31</v>
       </c>
       <c r="B83">
         <v>81</v>
       </c>
-      <c r="C83" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D83" t="s">
-        <v>134</v>
-      </c>
-      <c r="E83" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H83" t="s">
-        <v>24</v>
-      </c>
-      <c r="I83">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>35</v>
       </c>
       <c r="B84">
         <v>82</v>
       </c>
-      <c r="C84" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D84" t="s">
-        <v>135</v>
-      </c>
-      <c r="E84" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H84" t="s">
-        <v>33</v>
-      </c>
-      <c r="I84">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>32</v>
       </c>
       <c r="B85">
         <v>83</v>
       </c>
-      <c r="C85" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H85" t="s">
-        <v>30</v>
-      </c>
-      <c r="I85">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>20</v>
       </c>
       <c r="B86">
         <v>84</v>
       </c>
-      <c r="C86" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D86" t="s">
-        <v>137</v>
-      </c>
-      <c r="E86" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H86" t="s">
-        <v>31</v>
-      </c>
-      <c r="I86">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>21</v>
       </c>
       <c r="B87">
         <v>85</v>
       </c>
-      <c r="C87" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D87" t="s">
-        <v>138</v>
-      </c>
-      <c r="E87" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H87" t="s">
-        <v>35</v>
-      </c>
-      <c r="I87">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>26</v>
       </c>
       <c r="B88">
         <v>86</v>
       </c>
-      <c r="C88" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D88" t="s">
-        <v>139</v>
-      </c>
-      <c r="E88" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H88" t="s">
-        <v>32</v>
-      </c>
-      <c r="I88">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>29</v>
       </c>
       <c r="B89">
         <v>87</v>
       </c>
-      <c r="C89" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D89" t="s">
-        <v>140</v>
-      </c>
-      <c r="E89" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H89" t="s">
-        <v>20</v>
-      </c>
-      <c r="I89">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>81</v>
       </c>
       <c r="B90">
         <v>88</v>
       </c>
-      <c r="C90" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D90" t="s">
-        <v>141</v>
-      </c>
-      <c r="E90" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H90" t="s">
-        <v>21</v>
-      </c>
-      <c r="I90">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>82</v>
       </c>
       <c r="B91">
         <v>89</v>
       </c>
-      <c r="C91" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D91" t="s">
-        <v>142</v>
-      </c>
-      <c r="E91" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H91" t="s">
-        <v>26</v>
-      </c>
-      <c r="I91">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>83</v>
       </c>
       <c r="B92">
         <v>90</v>
       </c>
-      <c r="C92" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D92" t="s">
-        <v>50</v>
-      </c>
-      <c r="E92" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H92" t="s">
-        <v>29</v>
-      </c>
-      <c r="I92">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>84</v>
       </c>
       <c r="B93">
         <v>91</v>
       </c>
-      <c r="C93" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D93" t="s">
-        <v>143</v>
-      </c>
-      <c r="E93" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H93" t="s">
-        <v>81</v>
-      </c>
-      <c r="I93">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>85</v>
       </c>
       <c r="B94">
         <v>92</v>
       </c>
-      <c r="C94" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D94" t="s">
-        <v>144</v>
-      </c>
-      <c r="E94" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H94" t="s">
-        <v>82</v>
-      </c>
-      <c r="I94">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>86</v>
       </c>
       <c r="B95">
         <v>93</v>
       </c>
-      <c r="C95" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D95" t="s">
-        <v>52</v>
-      </c>
-      <c r="E95" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H95" t="s">
-        <v>83</v>
-      </c>
-      <c r="I95">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>87</v>
       </c>
       <c r="B96">
         <v>94</v>
       </c>
-      <c r="C96" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D96" t="s">
-        <v>2217</v>
-      </c>
-      <c r="E96" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Não existe</v>
-      </c>
-      <c r="H96" t="s">
-        <v>84</v>
-      </c>
-      <c r="I96">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B97">
         <v>95</v>
       </c>
-      <c r="C97" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D97" t="s">
-        <v>145</v>
-      </c>
-      <c r="E97" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H97" t="s">
-        <v>85</v>
-      </c>
-      <c r="I97">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B98">
         <v>96</v>
       </c>
-      <c r="C98" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D98" t="s">
-        <v>146</v>
-      </c>
-      <c r="E98" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H98" t="s">
-        <v>86</v>
-      </c>
-      <c r="I98">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B99">
         <v>97</v>
       </c>
-      <c r="C99" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D99" t="s">
-        <v>147</v>
-      </c>
-      <c r="E99" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H99" t="s">
-        <v>87</v>
-      </c>
-      <c r="I99">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B100">
         <v>98</v>
       </c>
-      <c r="C100" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D100" t="s">
-        <v>148</v>
-      </c>
-      <c r="E100" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H100" t="s">
-        <v>65</v>
-      </c>
-      <c r="I100">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B101">
         <v>99</v>
       </c>
-      <c r="C101" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D101" t="s">
-        <v>149</v>
-      </c>
-      <c r="E101" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H101" t="s">
-        <v>69</v>
-      </c>
-      <c r="I101">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="B102">
         <v>100</v>
       </c>
-      <c r="C102" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D102" t="s">
-        <v>150</v>
-      </c>
-      <c r="E102" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H102" t="s">
-        <v>68</v>
-      </c>
-      <c r="I102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B103">
         <v>101</v>
       </c>
-      <c r="C103" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D103" t="s">
-        <v>151</v>
-      </c>
-      <c r="E103" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H103" t="s">
-        <v>66</v>
-      </c>
-      <c r="I103">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B104">
         <v>102</v>
       </c>
-      <c r="C104" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D104" t="s">
-        <v>152</v>
-      </c>
-      <c r="E104" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H104" t="s">
-        <v>70</v>
-      </c>
-      <c r="I104">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="B105">
         <v>103</v>
       </c>
-      <c r="C105" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D105" t="s">
-        <v>55</v>
-      </c>
-      <c r="E105" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H105" t="s">
-        <v>167</v>
-      </c>
-      <c r="I105">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B106">
         <v>104</v>
       </c>
-      <c r="C106" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D106" t="s">
-        <v>56</v>
-      </c>
-      <c r="E106" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H106" t="s">
-        <v>72</v>
-      </c>
-      <c r="I106">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B107">
         <v>105</v>
       </c>
-      <c r="C107" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D107" t="s">
-        <v>57</v>
-      </c>
-      <c r="E107" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H107" t="s">
-        <v>76</v>
-      </c>
-      <c r="I107">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B108">
         <v>106</v>
       </c>
-      <c r="C108" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D108" t="s">
-        <v>58</v>
-      </c>
-      <c r="E108" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H108" t="s">
-        <v>74</v>
-      </c>
-      <c r="I108">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B109">
         <v>107</v>
       </c>
-      <c r="C109" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D109" t="s">
-        <v>153</v>
-      </c>
-      <c r="E109" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H109" t="s">
-        <v>75</v>
-      </c>
-      <c r="I109">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B110">
         <v>108</v>
       </c>
-      <c r="C110" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D110" t="s">
-        <v>154</v>
-      </c>
-      <c r="E110" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H110" t="s">
-        <v>73</v>
-      </c>
-      <c r="I110">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B111">
         <v>109</v>
       </c>
-      <c r="C111" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D111" t="s">
-        <v>155</v>
-      </c>
-      <c r="E111" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H111" t="s">
-        <v>77</v>
-      </c>
-      <c r="I111">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>110</v>
       </c>
-      <c r="C112" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D112" t="s">
-        <v>156</v>
-      </c>
-      <c r="E112" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H112" t="s">
-        <v>111</v>
-      </c>
-      <c r="I112">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>111</v>
       </c>
-      <c r="C113" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D113" t="s">
-        <v>157</v>
-      </c>
-      <c r="E113" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H113" t="s">
-        <v>112</v>
-      </c>
-      <c r="I113">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>112</v>
       </c>
-      <c r="C114" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D114" t="s">
-        <v>158</v>
-      </c>
-      <c r="E114" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H114" t="s">
-        <v>113</v>
-      </c>
-      <c r="I114">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>113</v>
       </c>
-      <c r="C115" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D115" t="s">
-        <v>159</v>
-      </c>
-      <c r="E115" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H115" t="s">
-        <v>114</v>
-      </c>
-      <c r="I115">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>114</v>
       </c>
-      <c r="C116" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D116" t="s">
-        <v>160</v>
-      </c>
-      <c r="E116" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H116" t="s">
-        <v>115</v>
-      </c>
-      <c r="I116">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>115</v>
       </c>
-      <c r="C117" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D117" t="s">
-        <v>161</v>
-      </c>
-      <c r="E117" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H117" t="s">
-        <v>116</v>
-      </c>
-      <c r="I117">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>116</v>
       </c>
-      <c r="C118" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D118" t="s">
-        <v>162</v>
-      </c>
-      <c r="E118" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H118" t="s">
-        <v>117</v>
-      </c>
-      <c r="I118">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>117</v>
       </c>
-      <c r="C119" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D119" t="s">
-        <v>163</v>
-      </c>
-      <c r="E119" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H119" t="s">
-        <v>118</v>
-      </c>
-      <c r="I119">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>118</v>
       </c>
-      <c r="C120" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D120" t="s">
-        <v>164</v>
-      </c>
-      <c r="E120" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H120" t="s">
-        <v>119</v>
-      </c>
-      <c r="I120">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="B121">
         <v>119</v>
       </c>
-      <c r="C121" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D121" t="s">
-        <v>165</v>
-      </c>
-      <c r="E121" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H121" t="s">
-        <v>168</v>
-      </c>
-      <c r="I121">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B122">
         <v>120</v>
       </c>
-      <c r="C122" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D122" t="s">
-        <v>166</v>
-      </c>
-      <c r="E122" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H122" t="s">
-        <v>78</v>
-      </c>
-      <c r="I122">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B123">
         <v>121</v>
       </c>
-      <c r="C123" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D123" t="s">
-        <v>65</v>
-      </c>
-      <c r="E123" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H123" t="s">
-        <v>132</v>
-      </c>
-      <c r="I123">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B124">
         <v>122</v>
       </c>
-      <c r="C124" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D124" t="s">
-        <v>66</v>
-      </c>
-      <c r="E124" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H124" t="s">
-        <v>133</v>
-      </c>
-      <c r="I124">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B125">
         <v>123</v>
       </c>
-      <c r="C125" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D125" t="s">
-        <v>167</v>
-      </c>
-      <c r="E125" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H125" t="s">
-        <v>134</v>
-      </c>
-      <c r="I125">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B126">
         <v>124</v>
       </c>
-      <c r="C126" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D126" t="s">
-        <v>68</v>
-      </c>
-      <c r="E126" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H126" t="s">
-        <v>135</v>
-      </c>
-      <c r="I126">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B127">
         <v>125</v>
       </c>
-      <c r="C127" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D127" t="s">
-        <v>69</v>
-      </c>
-      <c r="E127" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H127" t="s">
-        <v>136</v>
-      </c>
-      <c r="I127">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B128">
         <v>126</v>
       </c>
-      <c r="C128" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D128" t="s">
-        <v>70</v>
-      </c>
-      <c r="E128" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H128" t="s">
-        <v>137</v>
-      </c>
-      <c r="I128">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B129">
         <v>127</v>
       </c>
-      <c r="C129" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D129" t="s">
-        <v>168</v>
-      </c>
-      <c r="E129" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H129" t="s">
-        <v>138</v>
-      </c>
-      <c r="I129">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B130">
         <v>128</v>
       </c>
-      <c r="C130" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Existe</v>
-      </c>
-      <c r="D130" t="s">
-        <v>72</v>
-      </c>
-      <c r="E130" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Existe</v>
-      </c>
-      <c r="H130" t="s">
-        <v>139</v>
-      </c>
-      <c r="I130">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="B131">
         <v>129</v>
       </c>
-      <c r="C131" s="4" t="str">
-        <f t="shared" ref="C131:C133" si="4">IF(NOT(ISNA(VLOOKUP(A131,D$2:D$136, 1,FALSE))), "Existe", "Não existe")</f>
-        <v>Existe</v>
-      </c>
-      <c r="D131" t="s">
-        <v>73</v>
-      </c>
-      <c r="E131" s="4" t="str">
-        <f t="shared" ref="E131:E136" si="5">IF(NOT(ISNA(VLOOKUP(D131,A$2:A$133, 1,FALSE))), "Existe", "Não existe")</f>
-        <v>Existe</v>
-      </c>
-      <c r="H131" t="s">
-        <v>140</v>
-      </c>
-      <c r="I131">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="B132">
         <v>130</v>
       </c>
-      <c r="C132" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Existe</v>
-      </c>
-      <c r="D132" t="s">
-        <v>74</v>
-      </c>
-      <c r="E132" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Existe</v>
-      </c>
-      <c r="H132" t="s">
-        <v>141</v>
-      </c>
-      <c r="I132">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="B133">
         <v>131</v>
-      </c>
-      <c r="C133" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Existe</v>
-      </c>
-      <c r="D133" t="s">
-        <v>75</v>
-      </c>
-      <c r="E133" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Existe</v>
-      </c>
-      <c r="H133" t="s">
-        <v>142</v>
-      </c>
-      <c r="I133">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="C134" s="4"/>
-      <c r="D134" t="s">
-        <v>76</v>
-      </c>
-      <c r="E134" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Existe</v>
-      </c>
-      <c r="H134" t="s">
-        <v>17</v>
-      </c>
-      <c r="I134">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="C135" s="4"/>
-      <c r="D135" t="s">
-        <v>77</v>
-      </c>
-      <c r="E135" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Existe</v>
-      </c>
-      <c r="H135" t="s">
-        <v>19</v>
-      </c>
-      <c r="I135">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="C136" s="4"/>
-      <c r="D136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E136" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Existe</v>
-      </c>
-      <c r="H136" t="s">
-        <v>18</v>
-      </c>
-      <c r="I136">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -21416,8 +19079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21688,8 +19351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
